--- a/DataVisualization/2019nCov.xlsx
+++ b/DataVisualization/2019nCov.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DKKYJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922CFF02-5FA7-4D6D-97F7-153545BC636B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC058FD-FB80-49B4-A41B-448EED392310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4D7514B0-5666-4EF0-A215-9D34DC0BF6A0}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -260,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,942 +603,2186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2AD87-1C60-4E92-9F76-58B041E26CC9}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>20200110</v>
+      </c>
+      <c r="C1">
+        <v>20200111</v>
+      </c>
+      <c r="D1">
+        <v>20200112</v>
+      </c>
+      <c r="E1">
+        <v>20200113</v>
+      </c>
+      <c r="F1">
+        <v>20200114</v>
+      </c>
+      <c r="G1">
+        <v>20200115</v>
+      </c>
+      <c r="H1">
+        <v>20200116</v>
+      </c>
+      <c r="I1">
+        <v>20200117</v>
+      </c>
+      <c r="J1">
+        <v>20200118</v>
+      </c>
+      <c r="K1">
+        <v>20200119</v>
+      </c>
+      <c r="L1">
         <v>20200120</v>
       </c>
-      <c r="C1">
+      <c r="M1">
         <v>20200121</v>
       </c>
-      <c r="D1">
+      <c r="N1">
         <v>20200122</v>
       </c>
-      <c r="E1">
+      <c r="O1">
         <v>20200123</v>
       </c>
-      <c r="F1">
+      <c r="P1">
         <v>20200124</v>
       </c>
-      <c r="G1">
+      <c r="Q1">
         <v>20200125</v>
       </c>
-      <c r="H1">
+      <c r="R1">
         <v>20200126</v>
       </c>
-      <c r="I1">
+      <c r="S1">
         <v>20200127</v>
       </c>
-      <c r="J1">
+      <c r="T1">
         <v>20200128</v>
       </c>
-      <c r="K1">
+      <c r="U1">
         <v>20200129</v>
       </c>
-      <c r="L1">
+      <c r="V1">
         <v>20200130</v>
       </c>
-      <c r="M1">
+      <c r="W1">
         <v>20200131</v>
       </c>
-      <c r="N1">
+      <c r="X1">
         <v>20200201</v>
       </c>
-      <c r="O1">
+      <c r="Y1">
         <v>20200202</v>
       </c>
-      <c r="P1">
+      <c r="Z1">
         <v>20200203</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA1">
+        <v>20200204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>59</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
         <v>77</v>
       </c>
-      <c r="C4">
+      <c r="M4">
         <v>149</v>
       </c>
-      <c r="D4">
+      <c r="N4">
         <v>131</v>
       </c>
-      <c r="E4">
-        <v>259</v>
-      </c>
-      <c r="F4">
+      <c r="O4">
+        <v>272</v>
+      </c>
+      <c r="P4">
         <v>444</v>
       </c>
-      <c r="G4">
+      <c r="Q4">
         <v>688</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>769</v>
       </c>
-      <c r="I4">
+      <c r="S4">
         <v>1771</v>
       </c>
-      <c r="J4">
+      <c r="T4">
         <v>1459</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>1737</v>
       </c>
-      <c r="L4">
+      <c r="V4" s="6">
         <v>1982</v>
       </c>
-      <c r="M4">
+      <c r="W4" s="6">
         <v>2102</v>
       </c>
-      <c r="N4">
+      <c r="X4">
         <v>2590</v>
       </c>
-      <c r="O4">
-        <v>2831</v>
-      </c>
-      <c r="P4">
+      <c r="Y4">
+        <v>2829</v>
+      </c>
+      <c r="Z4">
         <v>3235</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA4">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>59</v>
+      </c>
+      <c r="K5">
+        <v>77</v>
+      </c>
+      <c r="L5">
         <v>72</v>
       </c>
-      <c r="C5">
+      <c r="M5">
         <v>105</v>
       </c>
       <c r="N5">
+        <v>69</v>
+      </c>
+      <c r="O5">
+        <v>105</v>
+      </c>
+      <c r="P5">
+        <v>180</v>
+      </c>
+      <c r="Q5">
+        <v>323</v>
+      </c>
+      <c r="R5">
+        <v>371</v>
+      </c>
+      <c r="S5">
+        <v>1291</v>
+      </c>
+      <c r="T5">
+        <v>840</v>
+      </c>
+      <c r="U5">
+        <v>1032</v>
+      </c>
+      <c r="V5">
+        <v>1220</v>
+      </c>
+      <c r="W5">
+        <v>1347</v>
+      </c>
+      <c r="X5">
         <v>1921</v>
       </c>
-      <c r="O5">
+      <c r="Y5">
         <v>2103</v>
       </c>
-      <c r="P5">
+      <c r="Z5">
         <v>2345</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA5">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <f>B4-B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="K6:L6" si="0">L4-L5</f>
         <v>5</v>
       </c>
-      <c r="C6">
-        <f>C4-C5</f>
+      <c r="M6">
+        <f>M4-M5</f>
         <v>44</v>
       </c>
       <c r="N6">
         <f>N4-N5</f>
-        <v>669</v>
+        <v>62</v>
       </c>
       <c r="O6">
         <f>O4-O5</f>
-        <v>728</v>
+        <v>167</v>
       </c>
       <c r="P6">
         <f>P4-P5</f>
+        <v>264</v>
+      </c>
+      <c r="Q6">
+        <f>Q4-Q5</f>
+        <v>365</v>
+      </c>
+      <c r="R6">
+        <f>R4-R5</f>
+        <v>398</v>
+      </c>
+      <c r="S6">
+        <f>S4-S5</f>
+        <v>480</v>
+      </c>
+      <c r="T6">
+        <f>T4-T5</f>
+        <v>619</v>
+      </c>
+      <c r="U6">
+        <f>U4-U5</f>
+        <v>705</v>
+      </c>
+      <c r="V6">
+        <f>V4-V5</f>
+        <v>762</v>
+      </c>
+      <c r="W6">
+        <f>W4-W5</f>
+        <v>755</v>
+      </c>
+      <c r="X6">
+        <f>X4-X5</f>
+        <v>669</v>
+      </c>
+      <c r="Y6">
+        <f>Y4-Y5</f>
+        <v>726</v>
+      </c>
+      <c r="Z6">
+        <f>Z4-Z5</f>
         <v>890</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA6">
+        <f>AA4-AA5</f>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
         <v>87</v>
       </c>
-      <c r="H8">
+      <c r="R8">
         <v>137</v>
       </c>
-      <c r="I8">
+      <c r="S8">
         <v>515</v>
       </c>
-      <c r="J8">
+      <c r="T8">
         <v>263</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>131</v>
       </c>
-      <c r="L8">
+      <c r="V8">
         <v>157</v>
       </c>
-      <c r="M8">
+      <c r="W8">
         <v>268</v>
       </c>
-      <c r="N8">
+      <c r="X8">
         <v>315</v>
       </c>
-      <c r="O8">
+      <c r="Y8">
         <v>186</v>
       </c>
-      <c r="P8">
+      <c r="Z8">
         <v>492</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N9">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="X9">
         <v>268</v>
       </c>
-      <c r="O9">
+      <c r="Y9">
         <v>139</v>
       </c>
-      <c r="P9">
+      <c r="Z9">
         <v>442</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N10">
-        <f>N8-N9</f>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>X8-X9</f>
         <v>47</v>
       </c>
-      <c r="O10">
-        <f>O8-O9</f>
+      <c r="Y10">
+        <f>Y8-Y9</f>
         <v>47</v>
       </c>
-      <c r="P10">
-        <f>P8-P9</f>
+      <c r="Z10">
+        <f>Z8-Z9</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA10">
+        <f>AA8-AA9</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="N12">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="O12">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="P12">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="Q12">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="R12">
         <v>24</v>
       </c>
-      <c r="I12">
+      <c r="S12">
         <v>26</v>
       </c>
-      <c r="J12">
+      <c r="T12">
         <v>26</v>
       </c>
-      <c r="K12">
+      <c r="U12">
         <v>38</v>
       </c>
-      <c r="L12">
+      <c r="V12">
         <v>43</v>
       </c>
-      <c r="M12">
+      <c r="W12">
         <v>46</v>
       </c>
-      <c r="N12">
+      <c r="X12">
         <v>45</v>
       </c>
-      <c r="O12">
+      <c r="Y12">
         <v>57</v>
       </c>
-      <c r="P12">
+      <c r="Z12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
         <v>13</v>
       </c>
-      <c r="H13">
+      <c r="R13">
         <v>24</v>
       </c>
-      <c r="I13">
+      <c r="S13">
         <v>24</v>
       </c>
-      <c r="J13">
+      <c r="T13">
         <v>25</v>
       </c>
-      <c r="K13">
+      <c r="U13">
         <v>37</v>
       </c>
-      <c r="L13">
+      <c r="V13">
         <v>42</v>
       </c>
-      <c r="M13">
+      <c r="W13">
         <v>45</v>
       </c>
-      <c r="N13">
+      <c r="X13">
         <v>45</v>
       </c>
-      <c r="O13">
+      <c r="Y13">
         <v>56</v>
       </c>
-      <c r="P13">
+      <c r="Z13">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <f>C12-C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:P14" si="0">G12-G13</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:AA14" si="1">M12-M13</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="Q16">
         <v>11</v>
       </c>
-      <c r="H16">
+      <c r="R16">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="S16">
         <v>9</v>
       </c>
-      <c r="J16">
+      <c r="T16">
         <v>43</v>
       </c>
-      <c r="K16">
+      <c r="U16">
         <v>21</v>
       </c>
-      <c r="L16">
+      <c r="V16">
         <v>47</v>
       </c>
-      <c r="M16">
+      <c r="W16">
         <v>72</v>
       </c>
-      <c r="N16">
+      <c r="X16">
         <v>85</v>
       </c>
-      <c r="O16">
+      <c r="Y16">
         <v>147</v>
       </c>
-      <c r="P16">
+      <c r="Z16">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA16">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>33</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>26</v>
+      </c>
+      <c r="W17">
+        <v>50</v>
+      </c>
+      <c r="X17">
         <v>49</v>
       </c>
-      <c r="O17">
+      <c r="Y17">
         <v>80</v>
       </c>
-      <c r="P17">
+      <c r="Z17">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="N18">
-        <f>N16-N17</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:S18" si="2">O16-O17</f>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <f>T16-T17</f>
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <f>U16-U17</f>
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <f>V16-V17</f>
+        <v>21</v>
+      </c>
+      <c r="W18">
+        <f>W16-W17</f>
+        <v>22</v>
+      </c>
+      <c r="X18">
+        <f>X16-X17</f>
         <v>36</v>
       </c>
-      <c r="O18">
-        <f>O16-O17</f>
+      <c r="Y18">
+        <f>Y16-Y17</f>
         <v>67</v>
       </c>
-      <c r="P18">
-        <f>P16-P17</f>
+      <c r="Z18">
+        <f>Z16-Z17</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA18">
+        <f>AA16-AA17</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20">
+      <c r="L20">
+        <v>27</v>
+      </c>
+      <c r="N20">
         <v>257</v>
       </c>
-      <c r="E20">
+      <c r="O20">
         <v>680</v>
       </c>
-      <c r="F20">
+      <c r="P20">
         <v>1118</v>
       </c>
-      <c r="G20">
+      <c r="Q20">
         <v>1309</v>
       </c>
-      <c r="H20">
+      <c r="R20">
         <v>3806</v>
       </c>
-      <c r="I20">
+      <c r="S20">
         <v>2077</v>
       </c>
-      <c r="J20">
+      <c r="T20">
         <v>3248</v>
       </c>
-      <c r="K20">
+      <c r="U20">
         <v>4148</v>
       </c>
-      <c r="L20">
+      <c r="V20">
         <v>4812</v>
       </c>
-      <c r="M20">
+      <c r="W20">
         <v>5019</v>
       </c>
-      <c r="N20">
+      <c r="X20">
         <v>4562</v>
       </c>
-      <c r="O20">
+      <c r="Y20">
         <v>5173</v>
       </c>
-      <c r="P20">
+      <c r="Z20">
         <v>5072</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA20">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>26</v>
-      </c>
-      <c r="N21">
+      <c r="X21">
         <v>2606</v>
       </c>
-      <c r="O21">
+      <c r="Y21">
         <v>3260</v>
       </c>
-      <c r="P21">
+      <c r="Z21">
         <v>3182</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA21">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N22">
-        <f>N20-N21</f>
+      <c r="X22">
+        <f>X20-X21</f>
         <v>1956</v>
       </c>
-      <c r="O22">
-        <f>O20-O21</f>
+      <c r="Y22">
+        <f>Y20-Y21</f>
         <v>1913</v>
       </c>
-      <c r="P22">
-        <f>P20-P21</f>
+      <c r="Z22">
+        <f>Z20-Z21</f>
         <v>1890</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA22">
+        <f>AA20-AA21</f>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>41</v>
+      </c>
+      <c r="F25">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <v>45</v>
+      </c>
+      <c r="I25">
+        <v>62</v>
+      </c>
+      <c r="J25">
+        <v>134</v>
+      </c>
+      <c r="K25">
+        <v>214</v>
+      </c>
+      <c r="L25">
         <v>291</v>
       </c>
-      <c r="C25">
+      <c r="M25">
         <v>440</v>
       </c>
-      <c r="D25">
+      <c r="N25">
         <v>571</v>
       </c>
-      <c r="E25">
-        <v>830</v>
-      </c>
-      <c r="F25">
+      <c r="O25">
+        <v>843</v>
+      </c>
+      <c r="P25">
         <v>1287</v>
       </c>
-      <c r="G25">
+      <c r="Q25">
         <v>1975</v>
       </c>
-      <c r="H25">
+      <c r="R25">
         <v>2774</v>
       </c>
-      <c r="I25">
+      <c r="S25">
         <v>4515</v>
       </c>
-      <c r="J25">
+      <c r="T25">
         <v>5974</v>
       </c>
-      <c r="K25">
+      <c r="U25">
         <v>7711</v>
       </c>
-      <c r="L25">
+      <c r="V25" s="6">
         <v>9692</v>
       </c>
-      <c r="M25">
+      <c r="W25">
         <v>11791</v>
       </c>
-      <c r="N25">
+      <c r="X25">
         <v>14380</v>
       </c>
-      <c r="O25">
+      <c r="Y25">
         <v>17205</v>
       </c>
-      <c r="P25">
+      <c r="Z25">
         <v>20438</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA25">
+        <v>24324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B26">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <v>41</v>
+      </c>
+      <c r="G26">
+        <v>41</v>
+      </c>
+      <c r="H26">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>62</v>
+      </c>
+      <c r="J26">
+        <v>121</v>
+      </c>
+      <c r="K26">
+        <v>198</v>
+      </c>
+      <c r="L26">
         <v>270</v>
       </c>
-      <c r="C26">
+      <c r="M26">
         <v>375</v>
       </c>
+      <c r="N26">
+        <v>444</v>
+      </c>
       <c r="O26">
+        <v>549</v>
+      </c>
+      <c r="P26">
+        <v>729</v>
+      </c>
+      <c r="Q26">
+        <v>1052</v>
+      </c>
+      <c r="R26">
+        <v>1423</v>
+      </c>
+      <c r="S26">
+        <v>2714</v>
+      </c>
+      <c r="T26">
+        <v>3554</v>
+      </c>
+      <c r="U26">
+        <v>4586</v>
+      </c>
+      <c r="V26">
+        <v>5806</v>
+      </c>
+      <c r="W26">
+        <v>7153</v>
+      </c>
+      <c r="X26">
+        <v>9074</v>
+      </c>
+      <c r="Y26">
         <v>11177</v>
       </c>
-      <c r="P26">
+      <c r="Z26">
         <v>13522</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA26">
+        <v>16678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B27">
-        <f>B25-B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <f>L25-L26</f>
         <v>21</v>
       </c>
-      <c r="C27">
-        <f>C25-C26</f>
+      <c r="M27">
+        <f>M25-M26</f>
         <v>65</v>
+      </c>
+      <c r="N27">
+        <f>N25-N26</f>
+        <v>127</v>
       </c>
       <c r="O27">
         <f>O25-O26</f>
-        <v>6028</v>
+        <v>294</v>
       </c>
       <c r="P27">
         <f>P25-P26</f>
+        <v>558</v>
+      </c>
+      <c r="Q27">
+        <f>Q25-Q26</f>
+        <v>923</v>
+      </c>
+      <c r="R27">
+        <f>R25-R26</f>
+        <v>1351</v>
+      </c>
+      <c r="S27">
+        <f>S25-S26</f>
+        <v>1801</v>
+      </c>
+      <c r="T27">
+        <f>T25-T26</f>
+        <v>2420</v>
+      </c>
+      <c r="U27">
+        <f>U25-U26</f>
+        <v>3125</v>
+      </c>
+      <c r="V27">
+        <f>V25-V26</f>
+        <v>3886</v>
+      </c>
+      <c r="W27">
+        <f>W25-W26</f>
+        <v>4638</v>
+      </c>
+      <c r="X27">
+        <f>X25-X26</f>
+        <v>5306</v>
+      </c>
+      <c r="Y27">
+        <f>Y25-Y26</f>
+        <v>6028</v>
+      </c>
+      <c r="Z27">
+        <f>Z25-Z26</f>
         <v>6916</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA27">
+        <f>AA25-AA26</f>
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
       <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>44</v>
+      </c>
+      <c r="M29">
         <v>102</v>
       </c>
-      <c r="D29">
+      <c r="N29">
         <v>95</v>
       </c>
-      <c r="E29">
+      <c r="O29">
         <v>177</v>
       </c>
-      <c r="F29">
+      <c r="P29">
         <v>237</v>
       </c>
-      <c r="G29">
+      <c r="Q29">
         <v>324</v>
       </c>
-      <c r="H29">
+      <c r="R29">
         <v>461</v>
       </c>
-      <c r="I29">
+      <c r="S29">
         <v>976</v>
       </c>
-      <c r="J29">
+      <c r="T29">
         <v>1239</v>
       </c>
-      <c r="K29">
+      <c r="U29">
         <v>1370</v>
       </c>
-      <c r="L29">
+      <c r="V29">
         <v>1527</v>
       </c>
-      <c r="M29">
+      <c r="W29">
         <v>1795</v>
       </c>
-      <c r="N29">
+      <c r="X29">
         <v>2110</v>
       </c>
-      <c r="O29">
+      <c r="Y29">
         <v>2296</v>
       </c>
-      <c r="P29">
+      <c r="Z29">
         <v>2788</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA29">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="N33">
         <v>17</v>
       </c>
-      <c r="E33">
+      <c r="O33">
         <v>25</v>
       </c>
-      <c r="F33">
+      <c r="P33">
         <v>41</v>
       </c>
-      <c r="G33">
+      <c r="Q33">
         <v>56</v>
       </c>
-      <c r="H33">
+      <c r="R33">
         <v>80</v>
       </c>
-      <c r="I33">
+      <c r="S33">
         <v>106</v>
       </c>
-      <c r="J33">
+      <c r="T33">
         <v>132</v>
       </c>
-      <c r="K33">
+      <c r="U33">
         <v>170</v>
       </c>
-      <c r="L33">
+      <c r="V33">
         <v>213</v>
       </c>
-      <c r="M33">
+      <c r="W33">
         <v>259</v>
       </c>
-      <c r="N33">
+      <c r="X33">
         <v>304</v>
       </c>
-      <c r="O33">
+      <c r="Y33">
         <v>361</v>
       </c>
-      <c r="P33">
+      <c r="Z33">
         <v>425</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA33">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="N34">
         <v>17</v>
       </c>
-      <c r="E34">
+      <c r="O34">
         <v>24</v>
       </c>
-      <c r="F34">
+      <c r="P34">
         <v>39</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
+        <v>52</v>
+      </c>
+      <c r="R34">
+        <v>76</v>
+      </c>
+      <c r="S34">
+        <v>100</v>
+      </c>
+      <c r="T34">
+        <v>125</v>
+      </c>
+      <c r="U34">
+        <v>162</v>
+      </c>
+      <c r="V34">
+        <v>204</v>
+      </c>
+      <c r="W34">
+        <v>249</v>
+      </c>
+      <c r="X34">
+        <v>294</v>
+      </c>
+      <c r="Y34">
         <v>350</v>
       </c>
-      <c r="P34">
+      <c r="Z34">
         <v>414</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA34">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
-        <f>C33-C34</f>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>D33-D34</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>E33-E34</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <f>F33-F34</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>M33-M34</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>N33-N34</f>
+        <v>0</v>
       </c>
       <c r="O35">
         <f>O33-O34</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <f>P33-P34</f>
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:S35" si="3">Q33-Q34</f>
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <f>T33-T34</f>
+        <v>7</v>
+      </c>
+      <c r="U35">
+        <f>U33-U34</f>
+        <v>8</v>
+      </c>
+      <c r="V35">
+        <f>V33-V34</f>
+        <v>9</v>
+      </c>
+      <c r="W35">
+        <f>W33-W34</f>
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <f>X33-X34</f>
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <f>Y33-Y34</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Z35">
+        <f>Z33-Z34</f>
+        <v>11</v>
+      </c>
+      <c r="AA35">
+        <f>AA33-AA34</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
       <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>19</v>
+      </c>
+      <c r="J37">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>25</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>28</v>
+      </c>
+      <c r="O37">
         <v>34</v>
       </c>
-      <c r="F37">
+      <c r="P37">
         <v>38</v>
       </c>
-      <c r="G37">
+      <c r="Q37">
         <v>49</v>
       </c>
-      <c r="H37">
+      <c r="R37">
         <v>51</v>
       </c>
-      <c r="I37">
+      <c r="S37">
         <v>60</v>
       </c>
-      <c r="J37">
+      <c r="T37">
         <v>103</v>
       </c>
-      <c r="K37">
+      <c r="U37">
         <v>124</v>
       </c>
-      <c r="L37">
+      <c r="V37">
         <v>171</v>
       </c>
-      <c r="M37">
+      <c r="W37">
         <v>243</v>
       </c>
-      <c r="N37">
+      <c r="X37">
         <v>328</v>
       </c>
-      <c r="O37">
+      <c r="Y37">
         <v>475</v>
       </c>
-      <c r="P37">
+      <c r="Z37">
         <v>632</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA37">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>23</v>
+      </c>
+      <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>28</v>
+      </c>
+      <c r="O38">
+        <v>31</v>
+      </c>
       <c r="P38">
+        <v>32</v>
+      </c>
+      <c r="Q38">
+        <v>42</v>
+      </c>
+      <c r="R38">
+        <v>44</v>
+      </c>
+      <c r="S38">
+        <v>47</v>
+      </c>
+      <c r="T38">
+        <v>80</v>
+      </c>
+      <c r="U38">
+        <v>90</v>
+      </c>
+      <c r="V38">
+        <v>116</v>
+      </c>
+      <c r="W38">
+        <v>166</v>
+      </c>
+      <c r="X38">
+        <v>215</v>
+      </c>
+      <c r="Y38">
+        <v>295</v>
+      </c>
+      <c r="Z38">
         <v>396</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA38">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:P39" si="4">M37-M38</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39" si="5">Q37-Q38</f>
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:Y39" si="6">R37-R38</f>
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="Z39">
+        <f>Z37-Z38</f>
+        <v>236</v>
+      </c>
+      <c r="AA39">
+        <f>AA37-AA38</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D41">
+      <c r="L41">
+        <v>54</v>
+      </c>
+      <c r="N41">
         <v>393</v>
       </c>
-      <c r="E41">
+      <c r="O41">
         <v>1072</v>
       </c>
-      <c r="F41">
+      <c r="P41">
         <v>1965</v>
       </c>
-      <c r="G41">
+      <c r="Q41">
         <v>2684</v>
       </c>
-      <c r="H41">
+      <c r="R41">
         <v>5794</v>
       </c>
-      <c r="I41">
+      <c r="S41">
         <v>6973</v>
       </c>
-      <c r="J41">
+      <c r="T41">
         <v>9239</v>
       </c>
-      <c r="K41">
+      <c r="U41">
         <v>12167</v>
       </c>
-      <c r="L41">
+      <c r="V41">
         <v>15238</v>
       </c>
-      <c r="M41">
+      <c r="W41">
         <v>17988</v>
       </c>
-      <c r="N41">
+      <c r="X41">
         <v>19544</v>
       </c>
-      <c r="O41">
+      <c r="Y41">
         <v>21558</v>
       </c>
-      <c r="P41">
+      <c r="Z41">
         <v>23214</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="AA41">
+        <v>23260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B42">
-        <v>54</v>
-      </c>
-      <c r="C42">
-        <v>37</v>
-      </c>
-      <c r="O42">
-        <v>16898</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O43">
-        <f>O41-O42</f>
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
     </row>
   </sheetData>
